--- a/awaited_candidates.xlsx
+++ b/awaited_candidates.xlsx
@@ -350,16 +350,16 @@
         <v>302</v>
       </c>
       <c r="C2" t="str">
-        <v>rajak</v>
+        <v>umesh_singh</v>
       </c>
       <c r="D2" t="str">
-        <v>rajak@gmail.com</v>
+        <v>umesh@gmail.com</v>
       </c>
       <c r="E2" t="str">
-        <v>tcs</v>
+        <v>global</v>
       </c>
       <c r="F2" t="str">
-        <v>32144567</v>
+        <v>55667788</v>
       </c>
       <c r="G2" t="str">
         <v>offer_rolledout_awaited</v>
